--- a/Evaluation/eval003/sub0684/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub0684/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9157894736842105</v>
+        <v>0.9072164948453608</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8613861386138614</v>
+        <v>0.8712871287128713</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8877551020408163</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8691588785046729</v>
+        <v>0.8761904761904762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8942307692307692</v>
+        <v>0.8932038834951457</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8924741760944417</v>
+        <v>0.8917034855179184</v>
       </c>
       <c r="C5" t="n">
         <v>0.8910891089108911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8909929356357927</v>
+        <v>0.8910463861920173</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8924741760944417</v>
+        <v>0.8917034855179186</v>
       </c>
       <c r="C6" t="n">
         <v>0.8910891089108911</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8909929356357928</v>
+        <v>0.8910463861920173</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
